--- a/TestCases/TestData/Dest_Data_Excel_DDT.xlsx
+++ b/TestCases/TestData/Dest_Data_Excel_DDT.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
